--- a/Dataset/Authors/PLIN_epist.xlsx
+++ b/Dataset/Authors/PLIN_epist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DD396-F891-47FC-9635-D08A3D026E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD02884-FCA9-4FB2-B522-FC0D16A3E3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>cavaedium</t>
   </si>
   <si>
-    <t>centumvir</t>
-  </si>
-  <si>
     <t>centumviralis</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>cryptoporticus</t>
   </si>
   <si>
-    <t>decemvir</t>
-  </si>
-  <si>
     <t>duodecim</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
     <t>quinquennium</t>
   </si>
   <si>
-    <t>quinquevir</t>
-  </si>
-  <si>
     <t>sacerdos</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
     <t>semenstris</t>
   </si>
   <si>
-    <t>septemvir</t>
-  </si>
-  <si>
     <t>septemviratus</t>
   </si>
   <si>
@@ -443,6 +431,18 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>centumviri</t>
+  </si>
+  <si>
+    <t>decemviri</t>
+  </si>
+  <si>
+    <t>quinqueviri</t>
+  </si>
+  <si>
+    <t>septemviri</t>
   </si>
 </sst>
 </file>
@@ -974,10 +974,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1178,20 +1178,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>7</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
         <v>8</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>6</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1">
         <v>33</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
         <v>78</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1">
         <v>4</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
         <v>1</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
         <v>10</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
         <v>12</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
         <v>2</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
         <v>5</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
         <v>2</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1">
         <v>4</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1">
         <v>10</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
         <v>6</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
         <v>4</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1">
         <v>1</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1">
         <v>3</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1">
         <v>2</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1">
         <v>3</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1">
         <v>8</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1">
         <v>7</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1">
         <v>71</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B105" s="1">
         <v>1</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108" s="1">
         <v>4</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B112" s="1">
         <v>1</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B113" s="1">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B114" s="1">
         <v>1</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B115" s="1">
         <v>14</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B116" s="1">
         <v>5</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B117" s="1">
         <v>9</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B118" s="1">
         <v>7</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B119" s="1">
         <v>1</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B120" s="1">
         <v>1</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B121" s="1">
         <v>24</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B122" s="1">
         <v>11</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B123" s="1">
         <v>1</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B124" s="1">
         <v>1</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B125" s="1">
         <v>1</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B126" s="1">
         <v>5</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B127" s="1">
         <v>11</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B128" s="1">
         <v>4</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B129" s="1">
         <v>3</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B130" s="1">
         <v>1</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B132" s="1">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B133" s="1">
         <v>1</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B134" s="1">
         <v>1</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B135" s="1">
         <v>9</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B136" s="1">
         <v>5</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B137" s="1">
         <v>2</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B138" s="1">
         <v>1</v>
@@ -2071,13 +2071,16 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B139" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B139">
+    <sortCondition ref="A113:A139"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
